--- a/VytrackTestUsers.xlsx
+++ b/VytrackTestUsers.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3926" uniqueCount="1480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3927" uniqueCount="1481">
   <si>
     <t>username</t>
   </si>
@@ -4476,6 +4476,9 @@
   </si>
   <si>
     <t>SKIPPED</t>
+  </si>
+  <si>
+    <t>Test Results</t>
   </si>
 </sst>
 </file>
@@ -4828,7 +4831,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D70E95-9193-2444-8F5D-57688B5675B2}">
-  <dimension ref="A1:D302"/>
+  <dimension ref="A1:E302"/>
   <sheetViews>
     <sheetView topLeftCell="A212" zoomScale="200" workbookViewId="0">
       <selection activeCell="A231" sqref="A1:A1048576"/>
@@ -4852,6 +4855,9 @@
       </c>
       <c r="D1" t="s">
         <v>303</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1480</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
